--- a/Contenido de los sitios.xlsx
+++ b/Contenido de los sitios.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Local</t>
   </si>
@@ -28,6 +28,42 @@
   </si>
   <si>
     <t>Estadistica</t>
+  </si>
+  <si>
+    <t>Parrillada del Nato</t>
+  </si>
+  <si>
+    <t>-2.161520,-79.916476</t>
+  </si>
+  <si>
+    <t>La Riviera</t>
+  </si>
+  <si>
+    <t>-2.167432,-79.910820</t>
+  </si>
+  <si>
+    <t>Lo Nuestro</t>
+  </si>
+  <si>
+    <t>-2.164318,-79.912398</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/xbNOf8L61jY" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/DIfCNGp-rUQ" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Piccolo Mondo</t>
+  </si>
+  <si>
+    <t>-2.170828,-79.909771</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/8_1MaPxBKXU" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/BdBN02L8HoY" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -198,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -209,6 +245,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,12 +551,18 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,46 +576,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
   </sheetData>
@@ -585,7 +653,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -597,7 +665,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contenido de los sitios.xlsx
+++ b/Contenido de los sitios.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Local</t>
   </si>
@@ -64,16 +64,51 @@
   </si>
   <si>
     <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/BdBN02L8HoY" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Kosher Pita Grill</t>
+  </si>
+  <si>
+    <t>-2.171065, -79.907323</t>
+  </si>
+  <si>
+    <t>-2.173371, -79.909613</t>
+  </si>
+  <si>
+    <t>Puerto Moro</t>
+  </si>
+  <si>
+    <t>-2.172083, -79.914198</t>
+  </si>
+  <si>
+    <t>Una vaca en el Tejado</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="640" height="360" src="https://www.youtube.com/embed/6dBawwEOsSM" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="640" height="360" src="https://www.youtube.com/embed/PWKLn2vkRJI" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="640" height="360" src="https://www.youtube.com/embed/pyJKte501sM" frameborder="0" allow="autoplay; encrypted-media" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,10 +266,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -247,8 +283,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -262,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,21 +589,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -576,25 +617,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -606,7 +665,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -618,7 +677,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -641,6 +700,9 @@
         <v>15</v>
       </c>
       <c r="D8" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -653,7 +715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -665,7 +727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contenido de los sitios.xlsx
+++ b/Contenido de los sitios.xlsx
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,9 +281,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -287,6 +292,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -591,34 +599,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="157.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -627,10 +635,10 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
@@ -639,73 +647,74 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+      <c r="B12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
